--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A8C632-ECF2-4D85-96F4-B6E10403932F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5515075-1436-45A7-844B-CF90DD89D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="2760" windowWidth="30585" windowHeight="19365" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -692,7 +692,9 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -712,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -720,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -792,7 +794,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -800,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -808,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -816,7 +818,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -824,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -832,7 +834,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,7 +842,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,7 +850,7 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -856,7 +858,7 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +866,7 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +882,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +890,7 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5515075-1436-45A7-844B-CF90DD89D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A44919D-56BF-4D3F-B7F7-E64FA4D224F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="1095" yWindow="2985" windowWidth="29460" windowHeight="20220" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="RAF" sheetId="2" r:id="rId2"/>
+    <sheet name="RAF-generation" sheetId="2" r:id="rId2"/>
+    <sheet name="RAF-demand-altering-techs" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>RAF Regional Availability Factor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Source:</t>
   </si>
@@ -184,6 +182,15 @@
   </si>
   <si>
     <t>near each plant type on average.</t>
+  </si>
+  <si>
+    <t>demand-altering technologies</t>
+  </si>
+  <si>
+    <t>RAF Regional Availability Factor for Generation</t>
+  </si>
+  <si>
+    <t>RAF Regional Availability Factor for Demand-Altering Technologies</t>
   </si>
 </sst>
 </file>
@@ -555,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,120 +570,125 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -692,9 +704,7 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -703,15 +713,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0.6</v>
@@ -719,7 +729,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -727,7 +737,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0.9</v>
@@ -735,7 +745,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -743,7 +753,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -751,7 +761,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -759,7 +769,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -767,7 +777,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -775,7 +785,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -783,7 +793,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -791,7 +801,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0.9</v>
@@ -799,7 +809,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0.9</v>
@@ -807,7 +817,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0.6</v>
@@ -815,7 +825,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0.9</v>
@@ -823,7 +833,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.9</v>
@@ -831,7 +841,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.9</v>
@@ -839,7 +849,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0.9</v>
@@ -847,7 +857,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0.9</v>
@@ -855,7 +865,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0.9</v>
@@ -863,7 +873,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0.9</v>
@@ -871,7 +881,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0.9</v>
@@ -879,7 +889,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0.9</v>
@@ -887,9 +897,45 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AF6E62-1D44-4071-9B4B-8D8AD9AB16B0}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
         <v>0.9</v>
       </c>
     </row>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A44919D-56BF-4D3F-B7F7-E64FA4D224F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AC669C-A089-43AC-8C3F-D19C2C3202FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="2985" windowWidth="29460" windowHeight="20220" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Source:</t>
   </si>
@@ -112,9 +112,6 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
-  </si>
-  <si>
     <t>Unit: dimensionless (% of capacity available)</t>
   </si>
   <si>
@@ -191,6 +188,12 @@
   </si>
   <si>
     <t>RAF Regional Availability Factor for Demand-Altering Technologies</t>
+  </si>
+  <si>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -570,12 +573,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -588,107 +591,107 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -702,9 +705,11 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -713,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,9 +902,17 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25">
         <v>0.9</v>
       </c>
     </row>
@@ -925,15 +938,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2">
         <v>0.9</v>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AC669C-A089-43AC-8C3F-D19C2C3202FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38BA603-0BA4-4B13-8D82-C234526C7A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="29895" yWindow="4140" windowWidth="26325" windowHeight="17235" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RAF-generation" sheetId="2" r:id="rId2"/>
     <sheet name="RAF-demand-altering-techs" sheetId="3" r:id="rId3"/>
+    <sheet name="RAF-capacity" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
   <si>
     <t>Source:</t>
   </si>
@@ -127,9 +128,6 @@
     <t>known as a theoretical "copper sheet."  In reality, transmission and distribution</t>
   </si>
   <si>
-    <t>constrain electricity flows.</t>
-  </si>
-  <si>
     <t>The EPS groups power plants by type (for instance, all natural gas combined cycle</t>
   </si>
   <si>
@@ -154,12 +152,6 @@
     <t>not already incorporated into the capacity factors of the plants themselves.</t>
   </si>
   <si>
-    <t>This variable allows you to specify a regional availability factor (RAF).  When</t>
-  </si>
-  <si>
-    <t>the RAF is less than 1, it reduces the amount of capacity available that can</t>
-  </si>
-  <si>
     <t>meet demand due to regional factors such as transmission constraints, i.e.,</t>
   </si>
   <si>
@@ -194,6 +186,48 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless (% of capacity credit allowed)</t>
+  </si>
+  <si>
+    <t>capacity credit multiplier</t>
+  </si>
+  <si>
+    <t>RAF Regional Availability Factor for Capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constrain electricity flows. Furthemore, there are important regional differences </t>
+  </si>
+  <si>
+    <t>in capacity factor and land availability for variable renewable electricity technologies.</t>
+  </si>
+  <si>
+    <t>These must be accounted for when estimating what types of new resources are built</t>
+  </si>
+  <si>
+    <t>This variable allows you to specify a regional availability factor (RAF) for generation and</t>
+  </si>
+  <si>
+    <t>capacity.  When the RAF is less than 1, it reduces the amount of capacity available that can</t>
+  </si>
+  <si>
+    <t>The RAF for capacity reduces the value of the capacity credit a resource receives</t>
+  </si>
+  <si>
+    <t>in the reliability capacity addition mechanism. This is to account for the differeing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacity factors of variable renewable technologies by region and their limited </t>
+  </si>
+  <si>
+    <t xml:space="preserve">geographcial availability, often near load centers. It can be used as a </t>
+  </si>
+  <si>
+    <t>stand-in for the fact that the model does not currently have subregional detail</t>
+  </si>
+  <si>
+    <t>for the electricity sector.</t>
   </si>
 </sst>
 </file>
@@ -565,133 +599,180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -703,12 +784,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D9ED82-0D6D-4554-A249-670AA724E405}">
   <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
+    <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A25"/>
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +983,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B24">
         <v>0.9</v>
@@ -910,7 +991,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B25">
         <v>0.9</v>
@@ -924,11 +1005,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AF6E62-1D44-4071-9B4B-8D8AD9AB16B0}">
   <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
+    <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -946,10 +1029,231 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED7E3B8-DB01-4BFB-908D-32A466D537CF}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B2">
-        <v>0.9</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38BA603-0BA4-4B13-8D82-C234526C7A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEE36A-44E1-43F8-B3DC-C40773C3587B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="4140" windowWidth="26325" windowHeight="17235" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="30585" yWindow="4830" windowWidth="26325" windowHeight="17235" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -601,7 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -1047,17 +1047,14 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1" t="s">
@@ -1101,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1106,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1122,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1130,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EEE36A-44E1-43F8-B3DC-C40773C3587B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF44064-37B5-4C2B-AEB8-24E36A7FA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30585" yWindow="4830" windowWidth="26325" windowHeight="17235" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -601,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +789,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B25"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1047,7 +1047,7 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF44064-37B5-4C2B-AEB8-24E36A7FA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71882C16-618B-4A9B-B33D-02C579EB9193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="1545" yWindow="1335" windowWidth="20985" windowHeight="14580" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>Source:</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>for the electricity sector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We also apply a very low credit for hydrogen plants because they require </t>
+  </si>
+  <si>
+    <t xml:space="preserve">access to a hydrogen supplier, most likely pipeline deliery, which </t>
+  </si>
+  <si>
+    <t xml:space="preserve">does not exist in the US today and they would only be used in certain </t>
+  </si>
+  <si>
+    <t>unique circumstances.</t>
   </si>
 </sst>
 </file>
@@ -303,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -449,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -591,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -599,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:A48"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +785,26 @@
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1048,7 +1080,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1250,7 +1282,7 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71882C16-618B-4A9B-B33D-02C579EB9193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D10B98B-3B2C-474A-898A-D6B427FCD2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="1335" windowWidth="20985" windowHeight="14580" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="3" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -1079,8 +1079,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1274,7 @@
         <v>47</v>
       </c>
       <c r="B24">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
         <v>48</v>
       </c>
       <c r="B25">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73306826-ED3C-49C8-8A17-C52DC2D8832D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C12635-1DB5-4D74-846D-2C39CF96E070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="1755" yWindow="570" windowWidth="12330" windowHeight="16680" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -820,8 +820,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\us-eps\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C12635-1DB5-4D74-846D-2C39CF96E070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A59768-112B-4192-A607-1839462A1F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="570" windowWidth="12330" windowHeight="16680" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20025" windowHeight="16860" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -821,7 +821,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CC6B04-B346-4890-A318-734C137A4431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E197654D-E8CD-48D0-94A6-D59B31D7746C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -820,8 +820,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E197654D-E8CD-48D0-94A6-D59B31D7746C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B03590-6867-428B-B57F-2015C6EA0F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="2310" yWindow="195" windowWidth="22875" windowHeight="23115" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -820,8 +820,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.46666666699999998</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B03590-6867-428B-B57F-2015C6EA0F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFAD568-224A-48BA-9873-039085B2F07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="195" windowWidth="22875" windowHeight="23115" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -821,7 +821,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.47</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFAD568-224A-48BA-9873-039085B2F07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B03590-6867-428B-B57F-2015C6EA0F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="2310" yWindow="195" windowWidth="22875" windowHeight="23115" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667665C7-8A8E-46D9-B686-64BA7741F669}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -821,7 +821,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B03590-6867-428B-B57F-2015C6EA0F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A8C306-3056-445E-B8CA-ED2622C8BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="195" windowWidth="22875" windowHeight="23115" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="22875" windowHeight="23115" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -842,7 +842,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.47</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/elec/RAF/Regional Availability Factor.xlsx
+++ b/InputData/elec/RAF/Regional Availability Factor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\RAF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\elec\RAF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A8C306-3056-445E-B8CA-ED2622C8BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693AE7CF-FFA1-4D55-98D2-4CD671F1D095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="22875" windowHeight="23115" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{D718C537-5235-45E1-A117-07B097D2BDF0}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Source:</t>
   </si>
@@ -271,12 +271,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -291,12 +297,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,10 +825,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B25"/>
+      <selection activeCell="B6" sqref="B6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,203 +836,2378 @@
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D1" s="3">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>0.8</v>
+      </c>
+      <c r="I3">
+        <v>0.8</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3">
+        <v>0.8</v>
+      </c>
+      <c r="N3">
+        <v>0.8</v>
+      </c>
+      <c r="O3">
+        <v>0.8</v>
+      </c>
+      <c r="P3">
+        <v>0.8</v>
+      </c>
+      <c r="Q3">
+        <v>0.8</v>
+      </c>
+      <c r="R3">
+        <v>0.8</v>
+      </c>
+      <c r="S3">
+        <v>0.8</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3">
+        <v>0.8</v>
+      </c>
+      <c r="V3">
+        <v>0.8</v>
+      </c>
+      <c r="W3">
+        <v>0.8</v>
+      </c>
+      <c r="X3">
+        <v>0.8</v>
+      </c>
+      <c r="Y3">
+        <v>0.8</v>
+      </c>
+      <c r="Z3">
+        <v>0.8</v>
+      </c>
+      <c r="AA3">
+        <v>0.8</v>
+      </c>
+      <c r="AB3">
+        <v>0.8</v>
+      </c>
+      <c r="AC3">
+        <v>0.8</v>
+      </c>
+      <c r="AD3">
+        <v>0.8</v>
+      </c>
+      <c r="AE3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
+      </c>
+      <c r="F4">
+        <v>0.8</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>0.8</v>
+      </c>
+      <c r="I4">
+        <v>0.8</v>
+      </c>
+      <c r="J4">
+        <v>0.8</v>
+      </c>
+      <c r="K4">
+        <v>0.8</v>
+      </c>
+      <c r="L4">
+        <v>0.8</v>
+      </c>
+      <c r="M4">
+        <v>0.8</v>
+      </c>
+      <c r="N4">
+        <v>0.8</v>
+      </c>
+      <c r="O4">
+        <v>0.8</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
+      </c>
+      <c r="Q4">
+        <v>0.8</v>
+      </c>
+      <c r="R4">
+        <v>0.8</v>
+      </c>
+      <c r="S4">
+        <v>0.8</v>
+      </c>
+      <c r="T4">
+        <v>0.8</v>
+      </c>
+      <c r="U4">
+        <v>0.8</v>
+      </c>
+      <c r="V4">
+        <v>0.8</v>
+      </c>
+      <c r="W4">
+        <v>0.8</v>
+      </c>
+      <c r="X4">
+        <v>0.8</v>
+      </c>
+      <c r="Y4">
+        <v>0.8</v>
+      </c>
+      <c r="Z4">
+        <v>0.8</v>
+      </c>
+      <c r="AA4">
+        <v>0.8</v>
+      </c>
+      <c r="AB4">
+        <v>0.8</v>
+      </c>
+      <c r="AC4">
+        <v>0.8</v>
+      </c>
+      <c r="AD4">
+        <v>0.8</v>
+      </c>
+      <c r="AE4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>0.8</v>
+      </c>
+      <c r="G12">
+        <v>0.8</v>
+      </c>
+      <c r="H12">
+        <v>0.8</v>
+      </c>
+      <c r="I12">
+        <v>0.8</v>
+      </c>
+      <c r="J12">
+        <v>0.8</v>
+      </c>
+      <c r="K12">
+        <v>0.8</v>
+      </c>
+      <c r="L12">
+        <v>0.8</v>
+      </c>
+      <c r="M12">
+        <v>0.8</v>
+      </c>
+      <c r="N12">
+        <v>0.8</v>
+      </c>
+      <c r="O12">
+        <v>0.8</v>
+      </c>
+      <c r="P12">
+        <v>0.8</v>
+      </c>
+      <c r="Q12">
+        <v>0.8</v>
+      </c>
+      <c r="R12">
+        <v>0.8</v>
+      </c>
+      <c r="S12">
+        <v>0.8</v>
+      </c>
+      <c r="T12">
+        <v>0.8</v>
+      </c>
+      <c r="U12">
+        <v>0.8</v>
+      </c>
+      <c r="V12">
+        <v>0.8</v>
+      </c>
+      <c r="W12">
+        <v>0.8</v>
+      </c>
+      <c r="X12">
+        <v>0.8</v>
+      </c>
+      <c r="Y12">
+        <v>0.8</v>
+      </c>
+      <c r="Z12">
+        <v>0.8</v>
+      </c>
+      <c r="AA12">
+        <v>0.8</v>
+      </c>
+      <c r="AB12">
+        <v>0.8</v>
+      </c>
+      <c r="AC12">
+        <v>0.8</v>
+      </c>
+      <c r="AD12">
+        <v>0.8</v>
+      </c>
+      <c r="AE12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E13">
+        <v>0.8</v>
+      </c>
+      <c r="F13">
+        <v>0.8</v>
+      </c>
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+      <c r="I13">
+        <v>0.8</v>
+      </c>
+      <c r="J13">
+        <v>0.8</v>
+      </c>
+      <c r="K13">
+        <v>0.8</v>
+      </c>
+      <c r="L13">
+        <v>0.8</v>
+      </c>
+      <c r="M13">
+        <v>0.8</v>
+      </c>
+      <c r="N13">
+        <v>0.8</v>
+      </c>
+      <c r="O13">
+        <v>0.8</v>
+      </c>
+      <c r="P13">
+        <v>0.8</v>
+      </c>
+      <c r="Q13">
+        <v>0.8</v>
+      </c>
+      <c r="R13">
+        <v>0.8</v>
+      </c>
+      <c r="S13">
+        <v>0.8</v>
+      </c>
+      <c r="T13">
+        <v>0.8</v>
+      </c>
+      <c r="U13">
+        <v>0.8</v>
+      </c>
+      <c r="V13">
+        <v>0.8</v>
+      </c>
+      <c r="W13">
+        <v>0.8</v>
+      </c>
+      <c r="X13">
+        <v>0.8</v>
+      </c>
+      <c r="Y13">
+        <v>0.8</v>
+      </c>
+      <c r="Z13">
+        <v>0.8</v>
+      </c>
+      <c r="AA13">
+        <v>0.8</v>
+      </c>
+      <c r="AB13">
+        <v>0.8</v>
+      </c>
+      <c r="AC13">
+        <v>0.8</v>
+      </c>
+      <c r="AD13">
+        <v>0.8</v>
+      </c>
+      <c r="AE13">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="U14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="V14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AB14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AD14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E16">
+        <v>0.8</v>
+      </c>
+      <c r="F16">
+        <v>0.8</v>
+      </c>
+      <c r="G16">
+        <v>0.8</v>
+      </c>
+      <c r="H16">
+        <v>0.8</v>
+      </c>
+      <c r="I16">
+        <v>0.8</v>
+      </c>
+      <c r="J16">
+        <v>0.8</v>
+      </c>
+      <c r="K16">
+        <v>0.8</v>
+      </c>
+      <c r="L16">
+        <v>0.8</v>
+      </c>
+      <c r="M16">
+        <v>0.8</v>
+      </c>
+      <c r="N16">
+        <v>0.8</v>
+      </c>
+      <c r="O16">
+        <v>0.8</v>
+      </c>
+      <c r="P16">
+        <v>0.8</v>
+      </c>
+      <c r="Q16">
+        <v>0.8</v>
+      </c>
+      <c r="R16">
+        <v>0.8</v>
+      </c>
+      <c r="S16">
+        <v>0.8</v>
+      </c>
+      <c r="T16">
+        <v>0.8</v>
+      </c>
+      <c r="U16">
+        <v>0.8</v>
+      </c>
+      <c r="V16">
+        <v>0.8</v>
+      </c>
+      <c r="W16">
+        <v>0.8</v>
+      </c>
+      <c r="X16">
+        <v>0.8</v>
+      </c>
+      <c r="Y16">
+        <v>0.8</v>
+      </c>
+      <c r="Z16">
+        <v>0.8</v>
+      </c>
+      <c r="AA16">
+        <v>0.8</v>
+      </c>
+      <c r="AB16">
+        <v>0.8</v>
+      </c>
+      <c r="AC16">
+        <v>0.8</v>
+      </c>
+      <c r="AD16">
+        <v>0.8</v>
+      </c>
+      <c r="AE16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E17">
+        <v>0.8</v>
+      </c>
+      <c r="F17">
+        <v>0.8</v>
+      </c>
+      <c r="G17">
+        <v>0.8</v>
+      </c>
+      <c r="H17">
+        <v>0.8</v>
+      </c>
+      <c r="I17">
+        <v>0.8</v>
+      </c>
+      <c r="J17">
+        <v>0.8</v>
+      </c>
+      <c r="K17">
+        <v>0.8</v>
+      </c>
+      <c r="L17">
+        <v>0.8</v>
+      </c>
+      <c r="M17">
+        <v>0.8</v>
+      </c>
+      <c r="N17">
+        <v>0.8</v>
+      </c>
+      <c r="O17">
+        <v>0.8</v>
+      </c>
+      <c r="P17">
+        <v>0.8</v>
+      </c>
+      <c r="Q17">
+        <v>0.8</v>
+      </c>
+      <c r="R17">
+        <v>0.8</v>
+      </c>
+      <c r="S17">
+        <v>0.8</v>
+      </c>
+      <c r="T17">
+        <v>0.8</v>
+      </c>
+      <c r="U17">
+        <v>0.8</v>
+      </c>
+      <c r="V17">
+        <v>0.8</v>
+      </c>
+      <c r="W17">
+        <v>0.8</v>
+      </c>
+      <c r="X17">
+        <v>0.8</v>
+      </c>
+      <c r="Y17">
+        <v>0.8</v>
+      </c>
+      <c r="Z17">
+        <v>0.8</v>
+      </c>
+      <c r="AA17">
+        <v>0.8</v>
+      </c>
+      <c r="AB17">
+        <v>0.8</v>
+      </c>
+      <c r="AC17">
+        <v>0.8</v>
+      </c>
+      <c r="AD17">
+        <v>0.8</v>
+      </c>
+      <c r="AE17">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E18">
+        <v>0.8</v>
+      </c>
+      <c r="F18">
+        <v>0.8</v>
+      </c>
+      <c r="G18">
+        <v>0.8</v>
+      </c>
+      <c r="H18">
+        <v>0.8</v>
+      </c>
+      <c r="I18">
+        <v>0.8</v>
+      </c>
+      <c r="J18">
+        <v>0.8</v>
+      </c>
+      <c r="K18">
+        <v>0.8</v>
+      </c>
+      <c r="L18">
+        <v>0.8</v>
+      </c>
+      <c r="M18">
+        <v>0.8</v>
+      </c>
+      <c r="N18">
+        <v>0.8</v>
+      </c>
+      <c r="O18">
+        <v>0.8</v>
+      </c>
+      <c r="P18">
+        <v>0.8</v>
+      </c>
+      <c r="Q18">
+        <v>0.8</v>
+      </c>
+      <c r="R18">
+        <v>0.8</v>
+      </c>
+      <c r="S18">
+        <v>0.8</v>
+      </c>
+      <c r="T18">
+        <v>0.8</v>
+      </c>
+      <c r="U18">
+        <v>0.8</v>
+      </c>
+      <c r="V18">
+        <v>0.8</v>
+      </c>
+      <c r="W18">
+        <v>0.8</v>
+      </c>
+      <c r="X18">
+        <v>0.8</v>
+      </c>
+      <c r="Y18">
+        <v>0.8</v>
+      </c>
+      <c r="Z18">
+        <v>0.8</v>
+      </c>
+      <c r="AA18">
+        <v>0.8</v>
+      </c>
+      <c r="AB18">
+        <v>0.8</v>
+      </c>
+      <c r="AC18">
+        <v>0.8</v>
+      </c>
+      <c r="AD18">
+        <v>0.8</v>
+      </c>
+      <c r="AE18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E19">
+        <v>0.9</v>
+      </c>
+      <c r="F19">
+        <v>0.9</v>
+      </c>
+      <c r="G19">
+        <v>0.9</v>
+      </c>
+      <c r="H19">
+        <v>0.9</v>
+      </c>
+      <c r="I19">
+        <v>0.9</v>
+      </c>
+      <c r="J19">
+        <v>0.9</v>
+      </c>
+      <c r="K19">
+        <v>0.9</v>
+      </c>
+      <c r="L19">
+        <v>0.9</v>
+      </c>
+      <c r="M19">
+        <v>0.9</v>
+      </c>
+      <c r="N19">
+        <v>0.9</v>
+      </c>
+      <c r="O19">
+        <v>0.9</v>
+      </c>
+      <c r="P19">
+        <v>0.9</v>
+      </c>
+      <c r="Q19">
+        <v>0.9</v>
+      </c>
+      <c r="R19">
+        <v>0.9</v>
+      </c>
+      <c r="S19">
+        <v>0.9</v>
+      </c>
+      <c r="T19">
+        <v>0.9</v>
+      </c>
+      <c r="U19">
+        <v>0.9</v>
+      </c>
+      <c r="V19">
+        <v>0.9</v>
+      </c>
+      <c r="W19">
+        <v>0.9</v>
+      </c>
+      <c r="X19">
+        <v>0.9</v>
+      </c>
+      <c r="Y19">
+        <v>0.9</v>
+      </c>
+      <c r="Z19">
+        <v>0.9</v>
+      </c>
+      <c r="AA19">
+        <v>0.9</v>
+      </c>
+      <c r="AB19">
+        <v>0.9</v>
+      </c>
+      <c r="AC19">
+        <v>0.9</v>
+      </c>
+      <c r="AD19">
+        <v>0.9</v>
+      </c>
+      <c r="AE19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E20">
+        <v>0.9</v>
+      </c>
+      <c r="F20">
+        <v>0.9</v>
+      </c>
+      <c r="G20">
+        <v>0.9</v>
+      </c>
+      <c r="H20">
+        <v>0.9</v>
+      </c>
+      <c r="I20">
+        <v>0.9</v>
+      </c>
+      <c r="J20">
+        <v>0.9</v>
+      </c>
+      <c r="K20">
+        <v>0.9</v>
+      </c>
+      <c r="L20">
+        <v>0.9</v>
+      </c>
+      <c r="M20">
+        <v>0.9</v>
+      </c>
+      <c r="N20">
+        <v>0.9</v>
+      </c>
+      <c r="O20">
+        <v>0.9</v>
+      </c>
+      <c r="P20">
+        <v>0.9</v>
+      </c>
+      <c r="Q20">
+        <v>0.9</v>
+      </c>
+      <c r="R20">
+        <v>0.9</v>
+      </c>
+      <c r="S20">
+        <v>0.9</v>
+      </c>
+      <c r="T20">
+        <v>0.9</v>
+      </c>
+      <c r="U20">
+        <v>0.9</v>
+      </c>
+      <c r="V20">
+        <v>0.9</v>
+      </c>
+      <c r="W20">
+        <v>0.9</v>
+      </c>
+      <c r="X20">
+        <v>0.9</v>
+      </c>
+      <c r="Y20">
+        <v>0.9</v>
+      </c>
+      <c r="Z20">
+        <v>0.9</v>
+      </c>
+      <c r="AA20">
+        <v>0.9</v>
+      </c>
+      <c r="AB20">
+        <v>0.9</v>
+      </c>
+      <c r="AC20">
+        <v>0.9</v>
+      </c>
+      <c r="AD20">
+        <v>0.9</v>
+      </c>
+      <c r="AE20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E21">
+        <v>0.9</v>
+      </c>
+      <c r="F21">
+        <v>0.9</v>
+      </c>
+      <c r="G21">
+        <v>0.9</v>
+      </c>
+      <c r="H21">
+        <v>0.9</v>
+      </c>
+      <c r="I21">
+        <v>0.9</v>
+      </c>
+      <c r="J21">
+        <v>0.9</v>
+      </c>
+      <c r="K21">
+        <v>0.9</v>
+      </c>
+      <c r="L21">
+        <v>0.9</v>
+      </c>
+      <c r="M21">
+        <v>0.9</v>
+      </c>
+      <c r="N21">
+        <v>0.9</v>
+      </c>
+      <c r="O21">
+        <v>0.9</v>
+      </c>
+      <c r="P21">
+        <v>0.9</v>
+      </c>
+      <c r="Q21">
+        <v>0.9</v>
+      </c>
+      <c r="R21">
+        <v>0.9</v>
+      </c>
+      <c r="S21">
+        <v>0.9</v>
+      </c>
+      <c r="T21">
+        <v>0.9</v>
+      </c>
+      <c r="U21">
+        <v>0.9</v>
+      </c>
+      <c r="V21">
+        <v>0.9</v>
+      </c>
+      <c r="W21">
+        <v>0.9</v>
+      </c>
+      <c r="X21">
+        <v>0.9</v>
+      </c>
+      <c r="Y21">
+        <v>0.9</v>
+      </c>
+      <c r="Z21">
+        <v>0.9</v>
+      </c>
+      <c r="AA21">
+        <v>0.9</v>
+      </c>
+      <c r="AB21">
+        <v>0.9</v>
+      </c>
+      <c r="AC21">
+        <v>0.9</v>
+      </c>
+      <c r="AD21">
+        <v>0.9</v>
+      </c>
+      <c r="AE21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22">
+        <v>0.9</v>
+      </c>
+      <c r="G22">
+        <v>0.9</v>
+      </c>
+      <c r="H22">
+        <v>0.9</v>
+      </c>
+      <c r="I22">
+        <v>0.9</v>
+      </c>
+      <c r="J22">
+        <v>0.9</v>
+      </c>
+      <c r="K22">
+        <v>0.9</v>
+      </c>
+      <c r="L22">
+        <v>0.9</v>
+      </c>
+      <c r="M22">
+        <v>0.9</v>
+      </c>
+      <c r="N22">
+        <v>0.9</v>
+      </c>
+      <c r="O22">
+        <v>0.9</v>
+      </c>
+      <c r="P22">
+        <v>0.9</v>
+      </c>
+      <c r="Q22">
+        <v>0.9</v>
+      </c>
+      <c r="R22">
+        <v>0.9</v>
+      </c>
+      <c r="S22">
+        <v>0.9</v>
+      </c>
+      <c r="T22">
+        <v>0.9</v>
+      </c>
+      <c r="U22">
+        <v>0.9</v>
+      </c>
+      <c r="V22">
+        <v>0.9</v>
+      </c>
+      <c r="W22">
+        <v>0.9</v>
+      </c>
+      <c r="X22">
+        <v>0.9</v>
+      </c>
+      <c r="Y22">
+        <v>0.9</v>
+      </c>
+      <c r="Z22">
+        <v>0.9</v>
+      </c>
+      <c r="AA22">
+        <v>0.9</v>
+      </c>
+      <c r="AB22">
+        <v>0.9</v>
+      </c>
+      <c r="AC22">
+        <v>0.9</v>
+      </c>
+      <c r="AD22">
+        <v>0.9</v>
+      </c>
+      <c r="AE22">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E23">
+        <v>0.9</v>
+      </c>
+      <c r="F23">
+        <v>0.9</v>
+      </c>
+      <c r="G23">
+        <v>0.9</v>
+      </c>
+      <c r="H23">
+        <v>0.9</v>
+      </c>
+      <c r="I23">
+        <v>0.9</v>
+      </c>
+      <c r="J23">
+        <v>0.9</v>
+      </c>
+      <c r="K23">
+        <v>0.9</v>
+      </c>
+      <c r="L23">
+        <v>0.9</v>
+      </c>
+      <c r="M23">
+        <v>0.9</v>
+      </c>
+      <c r="N23">
+        <v>0.9</v>
+      </c>
+      <c r="O23">
+        <v>0.9</v>
+      </c>
+      <c r="P23">
+        <v>0.9</v>
+      </c>
+      <c r="Q23">
+        <v>0.9</v>
+      </c>
+      <c r="R23">
+        <v>0.9</v>
+      </c>
+      <c r="S23">
+        <v>0.9</v>
+      </c>
+      <c r="T23">
+        <v>0.9</v>
+      </c>
+      <c r="U23">
+        <v>0.9</v>
+      </c>
+      <c r="V23">
+        <v>0.9</v>
+      </c>
+      <c r="W23">
+        <v>0.9</v>
+      </c>
+      <c r="X23">
+        <v>0.9</v>
+      </c>
+      <c r="Y23">
+        <v>0.9</v>
+      </c>
+      <c r="Z23">
+        <v>0.9</v>
+      </c>
+      <c r="AA23">
+        <v>0.9</v>
+      </c>
+      <c r="AB23">
+        <v>0.9</v>
+      </c>
+      <c r="AC23">
+        <v>0.9</v>
+      </c>
+      <c r="AD23">
+        <v>0.9</v>
+      </c>
+      <c r="AE23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B24">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E24">
+        <v>0.9</v>
+      </c>
+      <c r="F24">
+        <v>0.9</v>
+      </c>
+      <c r="G24">
+        <v>0.9</v>
+      </c>
+      <c r="H24">
+        <v>0.9</v>
+      </c>
+      <c r="I24">
+        <v>0.9</v>
+      </c>
+      <c r="J24">
+        <v>0.9</v>
+      </c>
+      <c r="K24">
+        <v>0.9</v>
+      </c>
+      <c r="L24">
+        <v>0.9</v>
+      </c>
+      <c r="M24">
+        <v>0.9</v>
+      </c>
+      <c r="N24">
+        <v>0.9</v>
+      </c>
+      <c r="O24">
+        <v>0.9</v>
+      </c>
+      <c r="P24">
+        <v>0.9</v>
+      </c>
+      <c r="Q24">
+        <v>0.9</v>
+      </c>
+      <c r="R24">
+        <v>0.9</v>
+      </c>
+      <c r="S24">
+        <v>0.9</v>
+      </c>
+      <c r="T24">
+        <v>0.9</v>
+      </c>
+      <c r="U24">
+        <v>0.9</v>
+      </c>
+      <c r="V24">
+        <v>0.9</v>
+      </c>
+      <c r="W24">
+        <v>0.9</v>
+      </c>
+      <c r="X24">
+        <v>0.9</v>
+      </c>
+      <c r="Y24">
+        <v>0.9</v>
+      </c>
+      <c r="Z24">
+        <v>0.9</v>
+      </c>
+      <c r="AA24">
+        <v>0.9</v>
+      </c>
+      <c r="AB24">
+        <v>0.9</v>
+      </c>
+      <c r="AC24">
+        <v>0.9</v>
+      </c>
+      <c r="AD24">
+        <v>0.9</v>
+      </c>
+      <c r="AE24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E25">
+        <v>0.9</v>
+      </c>
+      <c r="F25">
+        <v>0.9</v>
+      </c>
+      <c r="G25">
+        <v>0.9</v>
+      </c>
+      <c r="H25">
+        <v>0.9</v>
+      </c>
+      <c r="I25">
+        <v>0.9</v>
+      </c>
+      <c r="J25">
+        <v>0.9</v>
+      </c>
+      <c r="K25">
+        <v>0.9</v>
+      </c>
+      <c r="L25">
+        <v>0.9</v>
+      </c>
+      <c r="M25">
+        <v>0.9</v>
+      </c>
+      <c r="N25">
+        <v>0.9</v>
+      </c>
+      <c r="O25">
+        <v>0.9</v>
+      </c>
+      <c r="P25">
+        <v>0.9</v>
+      </c>
+      <c r="Q25">
+        <v>0.9</v>
+      </c>
+      <c r="R25">
+        <v>0.9</v>
+      </c>
+      <c r="S25">
+        <v>0.9</v>
+      </c>
+      <c r="T25">
+        <v>0.9</v>
+      </c>
+      <c r="U25">
+        <v>0.9</v>
+      </c>
+      <c r="V25">
+        <v>0.9</v>
+      </c>
+      <c r="W25">
+        <v>0.9</v>
+      </c>
+      <c r="X25">
+        <v>0.9</v>
+      </c>
+      <c r="Y25">
+        <v>0.9</v>
+      </c>
+      <c r="Z25">
+        <v>0.9</v>
+      </c>
+      <c r="AA25">
+        <v>0.9</v>
+      </c>
+      <c r="AB25">
+        <v>0.9</v>
+      </c>
+      <c r="AC25">
+        <v>0.9</v>
+      </c>
+      <c r="AD25">
+        <v>0.9</v>
+      </c>
+      <c r="AE25">
         <v>0.9</v>
       </c>
     </row>
